--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Notch4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>174.075048908313</v>
+        <v>0.1167573333333333</v>
       </c>
       <c r="H2">
-        <v>174.075048908313</v>
+        <v>0.350272</v>
       </c>
       <c r="I2">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="J2">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N2">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O2">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P2">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q2">
-        <v>2510.969270536421</v>
+        <v>3.505120414016</v>
       </c>
       <c r="R2">
-        <v>2510.969270536421</v>
+        <v>31.546083726144</v>
       </c>
       <c r="S2">
-        <v>0.8067732272384861</v>
+        <v>0.0005680189320913304</v>
       </c>
       <c r="T2">
-        <v>0.8067732272384861</v>
+        <v>0.0005680189320913304</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>174.075048908313</v>
+        <v>0.1167573333333333</v>
       </c>
       <c r="H3">
-        <v>174.075048908313</v>
+        <v>0.350272</v>
       </c>
       <c r="I3">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="J3">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N3">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O3">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P3">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q3">
-        <v>244.6043770837132</v>
+        <v>0.1666053200355555</v>
       </c>
       <c r="R3">
-        <v>244.6043770837132</v>
+        <v>1.49944788032</v>
       </c>
       <c r="S3">
-        <v>0.07859126951972964</v>
+        <v>2.699906559241494E-05</v>
       </c>
       <c r="T3">
-        <v>0.07859126951972964</v>
+        <v>2.699906559241494E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>174.075048908313</v>
+        <v>0.1167573333333333</v>
       </c>
       <c r="H4">
-        <v>174.075048908313</v>
+        <v>0.350272</v>
       </c>
       <c r="I4">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="J4">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N4">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O4">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P4">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q4">
-        <v>97.20728821603701</v>
+        <v>0.124679668672</v>
       </c>
       <c r="R4">
-        <v>97.20728821603701</v>
+        <v>1.122117018048</v>
       </c>
       <c r="S4">
-        <v>0.03123265527196196</v>
+        <v>2.020484430987856E-05</v>
       </c>
       <c r="T4">
-        <v>0.03123265527196196</v>
+        <v>2.020484430987855E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>174.075048908313</v>
+        <v>0.1167573333333333</v>
       </c>
       <c r="H5">
-        <v>174.075048908313</v>
+        <v>0.350272</v>
       </c>
       <c r="I5">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="J5">
-        <v>0.9695415515784839</v>
+        <v>0.0006433000764991399</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.946615086080339</v>
+        <v>1.483919333333333</v>
       </c>
       <c r="N5">
-        <v>0.946615086080339</v>
+        <v>4.451758</v>
       </c>
       <c r="O5">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="P5">
-        <v>0.05460766427401575</v>
+        <v>0.04364562593916237</v>
       </c>
       <c r="Q5">
-        <v>164.7820674067819</v>
+        <v>0.1732584642417778</v>
       </c>
       <c r="R5">
-        <v>164.7820674067819</v>
+        <v>1.559326178176</v>
       </c>
       <c r="S5">
-        <v>0.05294439954830617</v>
+        <v>2.8077234505516E-05</v>
       </c>
       <c r="T5">
-        <v>0.05294439954830617</v>
+        <v>2.8077234505516E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.46862162845379</v>
+        <v>174.184255</v>
       </c>
       <c r="H6">
-        <v>5.46862162845379</v>
+        <v>522.552765</v>
       </c>
       <c r="I6">
-        <v>0.03045844842151609</v>
+        <v>0.9597062674131449</v>
       </c>
       <c r="J6">
-        <v>0.03045844842151609</v>
+        <v>0.959706267413145</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N6">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O6">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P6">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q6">
-        <v>78.88287808823679</v>
+        <v>5229.108704098546</v>
       </c>
       <c r="R6">
-        <v>78.88287808823679</v>
+        <v>47061.97833688691</v>
       </c>
       <c r="S6">
-        <v>0.02534503105070307</v>
+        <v>0.8473982035009134</v>
       </c>
       <c r="T6">
-        <v>0.02534503105070307</v>
+        <v>0.8473982035009135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.46862162845379</v>
+        <v>174.184255</v>
       </c>
       <c r="H7">
-        <v>5.46862162845379</v>
+        <v>522.552765</v>
       </c>
       <c r="I7">
-        <v>0.03045844842151609</v>
+        <v>0.9597062674131449</v>
       </c>
       <c r="J7">
-        <v>0.03045844842151609</v>
+        <v>0.959706267413145</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N7">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O7">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P7">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q7">
-        <v>7.684322338688601</v>
+        <v>248.5499002155167</v>
       </c>
       <c r="R7">
-        <v>7.684322338688601</v>
+        <v>2236.94910193965</v>
       </c>
       <c r="S7">
-        <v>0.00246896909694167</v>
+        <v>0.04027851606104053</v>
       </c>
       <c r="T7">
-        <v>0.00246896909694167</v>
+        <v>0.04027851606104054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.46862162845379</v>
+        <v>174.184255</v>
       </c>
       <c r="H8">
-        <v>5.46862162845379</v>
+        <v>522.552765</v>
       </c>
       <c r="I8">
-        <v>0.03045844842151609</v>
+        <v>0.9597062674131449</v>
       </c>
       <c r="J8">
-        <v>0.03045844842151609</v>
+        <v>0.959706267413145</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N8">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O8">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P8">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q8">
-        <v>3.053797095651283</v>
+        <v>186.003179254515</v>
       </c>
       <c r="R8">
-        <v>3.053797095651283</v>
+        <v>1674.028613290635</v>
       </c>
       <c r="S8">
-        <v>0.0009811835481617717</v>
+        <v>0.03014256709220708</v>
       </c>
       <c r="T8">
-        <v>0.0009811835481617717</v>
+        <v>0.03014256709220708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>174.184255</v>
+      </c>
+      <c r="H9">
+        <v>522.552765</v>
+      </c>
+      <c r="I9">
+        <v>0.9597062674131449</v>
+      </c>
+      <c r="J9">
+        <v>0.959706267413145</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.483919333333333</v>
+      </c>
+      <c r="N9">
+        <v>4.451758</v>
+      </c>
+      <c r="O9">
+        <v>0.04364562593916237</v>
+      </c>
+      <c r="P9">
+        <v>0.04364562593916237</v>
+      </c>
+      <c r="Q9">
+        <v>258.4753835567633</v>
+      </c>
+      <c r="R9">
+        <v>2326.27845201087</v>
+      </c>
+      <c r="S9">
+        <v>0.04188698075898386</v>
+      </c>
+      <c r="T9">
+        <v>0.04188698075898387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.196452999999999</v>
+      </c>
+      <c r="H10">
+        <v>21.589359</v>
+      </c>
+      <c r="I10">
+        <v>0.03965043251035593</v>
+      </c>
+      <c r="J10">
+        <v>0.03965043251035594</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>30.020559</v>
+      </c>
+      <c r="N10">
+        <v>90.061677</v>
+      </c>
+      <c r="O10">
+        <v>0.8829766276144534</v>
+      </c>
+      <c r="P10">
+        <v>0.8829766276144534</v>
+      </c>
+      <c r="Q10">
+        <v>216.041541877227</v>
+      </c>
+      <c r="R10">
+        <v>1944.373876895043</v>
+      </c>
+      <c r="S10">
+        <v>0.03501040518144857</v>
+      </c>
+      <c r="T10">
+        <v>0.03501040518144857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.46862162845379</v>
-      </c>
-      <c r="H9">
-        <v>5.46862162845379</v>
-      </c>
-      <c r="I9">
-        <v>0.03045844842151609</v>
-      </c>
-      <c r="J9">
-        <v>0.03045844842151609</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.946615086080339</v>
-      </c>
-      <c r="N9">
-        <v>0.946615086080339</v>
-      </c>
-      <c r="O9">
-        <v>0.05460766427401575</v>
-      </c>
-      <c r="P9">
-        <v>0.05460766427401575</v>
-      </c>
-      <c r="Q9">
-        <v>5.176679733559588</v>
-      </c>
-      <c r="R9">
-        <v>5.176679733559588</v>
-      </c>
-      <c r="S9">
-        <v>0.001663264725709576</v>
-      </c>
-      <c r="T9">
-        <v>0.001663264725709576</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.196452999999999</v>
+      </c>
+      <c r="H11">
+        <v>21.589359</v>
+      </c>
+      <c r="I11">
+        <v>0.03965043251035593</v>
+      </c>
+      <c r="J11">
+        <v>0.03965043251035594</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.426936666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.28081</v>
+      </c>
+      <c r="O11">
+        <v>0.04196962907162197</v>
+      </c>
+      <c r="P11">
+        <v>0.04196962907162197</v>
+      </c>
+      <c r="Q11">
+        <v>10.26888265564333</v>
+      </c>
+      <c r="R11">
+        <v>92.41994390078999</v>
+      </c>
+      <c r="S11">
+        <v>0.001664113944989019</v>
+      </c>
+      <c r="T11">
+        <v>0.00166411394498902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.196452999999999</v>
+      </c>
+      <c r="H12">
+        <v>21.589359</v>
+      </c>
+      <c r="I12">
+        <v>0.03965043251035593</v>
+      </c>
+      <c r="J12">
+        <v>0.03965043251035594</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.067853</v>
+      </c>
+      <c r="N12">
+        <v>3.203559</v>
+      </c>
+      <c r="O12">
+        <v>0.03140811737476231</v>
+      </c>
+      <c r="P12">
+        <v>0.0314081173747623</v>
+      </c>
+      <c r="Q12">
+        <v>7.684753925409</v>
+      </c>
+      <c r="R12">
+        <v>69.162785328681</v>
+      </c>
+      <c r="S12">
+        <v>0.001245345438245351</v>
+      </c>
+      <c r="T12">
+        <v>0.001245345438245351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.196452999999999</v>
+      </c>
+      <c r="H13">
+        <v>21.589359</v>
+      </c>
+      <c r="I13">
+        <v>0.03965043251035593</v>
+      </c>
+      <c r="J13">
+        <v>0.03965043251035594</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.483919333333333</v>
+      </c>
+      <c r="N13">
+        <v>4.451758</v>
+      </c>
+      <c r="O13">
+        <v>0.04364562593916237</v>
+      </c>
+      <c r="P13">
+        <v>0.04364562593916237</v>
+      </c>
+      <c r="Q13">
+        <v>10.67895573812467</v>
+      </c>
+      <c r="R13">
+        <v>96.110601643122</v>
+      </c>
+      <c r="S13">
+        <v>0.001730567945672998</v>
+      </c>
+      <c r="T13">
+        <v>0.001730567945672998</v>
       </c>
     </row>
   </sheetData>
